--- a/forms/app/become_form.xlsx
+++ b/forms/app/become_form.xlsx
@@ -171,7 +171,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">patient_name</t>
+      <t xml:space="preserve">patient_name}</t>
     </r>
     <r>
       <rPr>
@@ -786,11 +786,11 @@
   </sheetPr>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.77"/>
   </cols>
@@ -1472,7 +1472,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
@@ -1585,10 +1585,10 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
